--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\workspace\evently\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43BBA2F-863F-48E5-8D34-DD0997791048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,106 +27,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
-    <t xml:space="preserve">TAREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HECHO POR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tº EST.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tº REAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daguerre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No terminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Fiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex y Juaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O.Fiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.G Fiestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almacenamiento Registros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.G Registros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBDD Incio Sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valoración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo</t>
+    <t>TAREA</t>
+  </si>
+  <si>
+    <t>HECHO POR</t>
+  </si>
+  <si>
+    <t>Tº EST.</t>
+  </si>
+  <si>
+    <t>Tº REAL</t>
+  </si>
+  <si>
+    <t>BBDD</t>
+  </si>
+  <si>
+    <t>Daguerre</t>
+  </si>
+  <si>
+    <t>No terminado</t>
+  </si>
+  <si>
+    <t>Filtrado</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>C.Fiesta</t>
+  </si>
+  <si>
+    <t>Alex y Juaki</t>
+  </si>
+  <si>
+    <t>O.Fiesta</t>
+  </si>
+  <si>
+    <t>I.G Fiestas</t>
+  </si>
+  <si>
+    <t>Almacenamiento Registros</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>I.G Registros</t>
+  </si>
+  <si>
+    <t>BBDD Incio Sesión</t>
+  </si>
+  <si>
+    <t>Valoración</t>
+  </si>
+  <si>
+    <t>Pablo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,9 +133,15 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64E11F"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -156,73 +149,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -281,30 +236,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF64E11F"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -318,31 +584,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
@@ -350,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -360,7 +626,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -370,7 +636,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -380,268 +646,269 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>8</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t xml:space="preserve">TAREA</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Daguerre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5</t>
   </si>
   <si>
     <t xml:space="preserve">No terminado</t>
@@ -207,12 +210,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -307,12 +310,12 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
   </cols>
@@ -341,78 +344,78 @@
       <c r="C2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>4</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1</v>
@@ -422,28 +425,28 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\workspace\evently\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89474735-9B69-49D1-A5B2-3FC3E8657701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>TAREA</t>
   </si>
@@ -61,9 +67,6 @@
     <t>Serena</t>
   </si>
   <si>
-    <t>I.G Registros</t>
-  </si>
-  <si>
     <t>BBDD Incio Sesión</t>
   </si>
   <si>
@@ -71,13 +74,18 @@
   </si>
   <si>
     <t>Pablo</t>
+  </si>
+  <si>
+    <t>I.G Inicio</t>
+  </si>
+  <si>
+    <t>I.G Registro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +116,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,22 +125,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2a6099"/>
+        <fgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81d41a"/>
+        <fgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF64e11f"/>
+        <fgColor rgb="FF64E11F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64E11F"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,16 +160,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,92 +184,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF64E11F"/>
+      <color rgb="FF00CC00"/>
+    </mruColors>
+  </colors>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,10 +286,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -307,71 +327,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,7 +419,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -422,11 +442,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -435,13 +455,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -451,7 +471,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -460,7 +480,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -469,7 +489,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -477,10 +497,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -545,25 +565,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="23" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="24.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +601,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -597,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -615,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -627,7 +649,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -639,7 +661,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -651,7 +673,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -665,9 +687,9 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>14</v>
@@ -681,9 +703,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -695,12 +717,12 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="11">
         <v>8</v>
@@ -709,15 +731,23 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1.5</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -725,7 +755,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
@@ -733,7 +763,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
@@ -741,7 +771,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -749,7 +779,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
@@ -757,7 +787,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
@@ -765,7 +795,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
@@ -773,7 +803,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -781,7 +811,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
@@ -789,7 +819,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -797,7 +827,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
@@ -805,7 +835,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -813,7 +843,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
@@ -821,7 +851,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -829,7 +859,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
@@ -837,7 +867,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
@@ -845,7 +875,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
@@ -853,7 +883,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -861,7 +891,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="21"/>
@@ -869,7 +899,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="4"/>
       <c r="C31" s="21"/>
@@ -877,7 +907,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="4"/>
       <c r="C32" s="21"/>
@@ -885,7 +915,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="4"/>
       <c r="C33" s="21"/>
@@ -893,7 +923,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="4"/>
       <c r="C34" s="21"/>
@@ -901,7 +931,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="4"/>
       <c r="C35" s="21"/>
@@ -909,7 +939,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="4"/>
       <c r="C36" s="21"/>
@@ -917,7 +947,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="4"/>
       <c r="C37" s="21"/>
@@ -925,7 +955,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="4"/>
       <c r="C38" s="21"/>
@@ -933,7 +963,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="4"/>
       <c r="C39" s="21"/>
@@ -941,7 +971,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="4"/>
       <c r="C40" s="21"/>
@@ -949,7 +979,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="4"/>
       <c r="C41" s="21"/>
@@ -957,7 +987,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="4"/>
       <c r="C42" s="21"/>
@@ -965,7 +995,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="4"/>
       <c r="C43" s="21"/>
@@ -973,7 +1003,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="4"/>
       <c r="C44" s="21"/>
@@ -981,7 +1011,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="4"/>
       <c r="C45" s="21"/>
@@ -989,7 +1019,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="4"/>
       <c r="C46" s="21"/>
@@ -997,7 +1027,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="4"/>
       <c r="C47" s="21"/>
@@ -1005,7 +1035,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="4"/>
       <c r="C48" s="21"/>
@@ -1013,7 +1043,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="4"/>
       <c r="C49" s="21"/>
@@ -1021,7 +1051,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="4"/>
       <c r="C50" s="21"/>
@@ -1029,7 +1059,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="4"/>
       <c r="C51" s="21"/>
@@ -1037,7 +1067,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="4"/>
       <c r="C52" s="21"/>
@@ -1045,7 +1075,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="4"/>
       <c r="C53" s="21"/>
@@ -1053,7 +1083,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="4"/>
       <c r="C54" s="21"/>
@@ -1061,7 +1091,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="4"/>
       <c r="C55" s="21"/>
@@ -1069,7 +1099,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="4"/>
       <c r="C56" s="21"/>
@@ -1077,7 +1107,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="4"/>
       <c r="C57" s="21"/>
@@ -1085,7 +1115,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="4"/>
       <c r="C58" s="21"/>
@@ -1093,7 +1123,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="4"/>
       <c r="C59" s="21"/>
@@ -1101,7 +1131,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="4"/>
       <c r="C60" s="21"/>
@@ -1109,7 +1139,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="4"/>
       <c r="C61" s="21"/>
@@ -1117,7 +1147,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="4"/>
       <c r="C62" s="21"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF590EC-DF56-473E-9B06-A8D4A12FC2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,84 +25,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">TAREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HECHO POR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tº EST.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tº REAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daguerre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No terminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Fiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex y Juaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O.Fiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.G Fiestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almacenamiento Registros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.G Inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBDD Incio Sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valoración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.G Registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IG Filtrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDD Filtrado</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t>TAREA</t>
+  </si>
+  <si>
+    <t>HECHO POR</t>
+  </si>
+  <si>
+    <t>Tº EST.</t>
+  </si>
+  <si>
+    <t>Tº REAL</t>
+  </si>
+  <si>
+    <t>BBDD</t>
+  </si>
+  <si>
+    <t>Daguerre</t>
+  </si>
+  <si>
+    <t>No terminado</t>
+  </si>
+  <si>
+    <t>Filtrado</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>C.Fiesta</t>
+  </si>
+  <si>
+    <t>Alex y Juaki</t>
+  </si>
+  <si>
+    <t>O.Fiesta</t>
+  </si>
+  <si>
+    <t>I.G Fiestas</t>
+  </si>
+  <si>
+    <t>Almacenamiento Registros</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>I.G Inicio</t>
+  </si>
+  <si>
+    <t>BBDD Incio Sesión</t>
+  </si>
+  <si>
+    <t>Valoración</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>I.G Registro</t>
+  </si>
+  <si>
+    <t>IG Filtrado</t>
+  </si>
+  <si>
+    <t>TDD Filtrado</t>
+  </si>
+  <si>
+    <t>V.emergente fallo registro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -106,23 +109,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -130,7 +118,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -138,7 +126,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,16 +157,22 @@
         <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFC6C6C6"/>
       </left>
@@ -194,157 +188,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -403,33 +344,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.71"/>
+    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -443,41 +692,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="9">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>4.5</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="9">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -487,7 +736,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -497,7 +746,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -507,288 +756,289 @@
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="14">
         <v>1</v>
       </c>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="14">
         <v>2</v>
       </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="14">
         <v>8</v>
       </c>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="20">
         <v>1</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="21">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="23">
         <v>5</v>
       </c>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="23">
         <v>3</v>
       </c>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="31"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
     </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
     </row>
-    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
     </row>
-    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
     </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
     </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
     </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
     </row>
-    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
     </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
     </row>
-    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
     </row>
-    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
     </row>
-    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
     </row>
-    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
     </row>
-    <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
     </row>
-    <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
     </row>
-    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
     </row>
-    <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
     </row>
-    <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
     </row>
-    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
     </row>
-    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
     </row>
-    <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
     </row>
-    <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDD77DC-3C79-4EE4-B77B-738F09813625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,87 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">TAREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HECHO POR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tº EST.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tº REAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daguerre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No terminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Fiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex y Juaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O.Fiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.G Fiestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almacenamiento Registros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.G Inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBDD Incio Sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valoración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.G Registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IG Filtrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDD Filtrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V.emergente fallo registro</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t>TAREA</t>
+  </si>
+  <si>
+    <t>HECHO POR</t>
+  </si>
+  <si>
+    <t>Tº EST.</t>
+  </si>
+  <si>
+    <t>Tº REAL</t>
+  </si>
+  <si>
+    <t>BBDD</t>
+  </si>
+  <si>
+    <t>Daguerre</t>
+  </si>
+  <si>
+    <t>No terminado</t>
+  </si>
+  <si>
+    <t>Filtrado</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>C.Fiesta</t>
+  </si>
+  <si>
+    <t>Alex y Juaki</t>
+  </si>
+  <si>
+    <t>O.Fiesta</t>
+  </si>
+  <si>
+    <t>I.G Fiestas</t>
+  </si>
+  <si>
+    <t>Almacenamiento Registros</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>I.G Inicio</t>
+  </si>
+  <si>
+    <t>BBDD Incio Sesión</t>
+  </si>
+  <si>
+    <t>Valoración</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>I.G Registro</t>
+  </si>
+  <si>
+    <t>IG Filtrado</t>
+  </si>
+  <si>
+    <t>TDD Filtrado</t>
+  </si>
+  <si>
+    <t>V.emergente fallo registro</t>
+  </si>
+  <si>
+    <t>Abrir Inicio al cerrar Registro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,23 +112,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -133,7 +121,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -141,7 +129,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,16 +160,34 @@
         <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64E11F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64E11F"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFC6C6C6"/>
       </left>
@@ -197,157 +203,122 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -406,33 +377,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF64E11F"/>
+      <color rgb="FF33CC33"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.71"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -446,41 +729,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="9">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>4.5</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="9">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -490,7 +773,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -500,7 +783,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -510,296 +793,303 @@
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="33">
         <v>2</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D9" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="14">
         <v>8</v>
       </c>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="20">
         <v>1</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="21">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="23">
         <v>5</v>
       </c>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="23">
         <v>3</v>
       </c>
-      <c r="D13" s="24" t="n">
+      <c r="D13" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="30">
         <v>0.5</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="31">
+        <v>0.5</v>
+      </c>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28"/>
     </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
     </row>
-    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
     </row>
-    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
     </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
     </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
     </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
     </row>
-    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
     </row>
-    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
     </row>
-    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
     </row>
-    <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
     </row>
-    <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
     </row>
-    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
     </row>
-    <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
     </row>
-    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
     </row>
-    <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
     </row>
-    <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
     </row>
-    <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
     </row>
-    <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
     </row>
-    <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
     </row>
-    <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
     </row>
-    <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
     </row>
-    <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>TAREA</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>TDD Registro</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>TDD Interfaces gráficas</t>
@@ -114,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -141,6 +138,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -206,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,9 +262,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,11 +271,11 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -594,12 +594,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="24" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="23" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="23" width="13.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -638,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -690,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -758,9 +758,11 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
@@ -772,9 +774,11 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -792,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -806,9 +810,11 @@
         <v>3</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -822,9 +828,11 @@
         <v>5</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
@@ -842,7 +850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -854,7 +862,9 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="13" t="s">
@@ -885,24 +895,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>2</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>1.5</v>
       </c>
       <c r="E18" s="4"/>
@@ -912,353 +920,353 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="21"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="21"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/IngenieriaSoft/even_dysco/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC80903-96F6-614A-B620-85C3F56339F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="20320" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>TAREA</t>
   </si>
@@ -104,13 +110,18 @@
   </si>
   <si>
     <t>Joaquin</t>
+  </si>
+  <si>
+    <t>TDD Valoraciones</t>
+  </si>
+  <si>
+    <t>PAblo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,22 +167,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2a6099"/>
+        <fgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81d41a"/>
+        <fgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF64e11f"/>
+        <fgColor rgb="FF64E11F"/>
       </patternFill>
     </fill>
   </fills>
@@ -185,16 +196,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -209,92 +220,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -305,10 +312,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -346,71 +353,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,7 +445,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -461,11 +468,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -474,13 +481,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -490,7 +497,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -499,7 +506,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -508,7 +515,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -516,10 +523,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -584,25 +591,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="23" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="23" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -638,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -656,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -672,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -690,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -708,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -726,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -744,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -762,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
@@ -772,13 +781,15 @@
       <c r="C10" s="11">
         <v>8</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>8.5</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -796,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -814,7 +825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -832,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
@@ -850,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -866,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
@@ -884,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
@@ -900,7 +911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -918,15 +929,25 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="F19" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -934,7 +955,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -942,7 +963,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -950,7 +971,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -958,7 +979,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -966,7 +987,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -974,7 +995,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -982,7 +1003,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -990,7 +1011,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -998,7 +1019,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -1006,7 +1027,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="18"/>
       <c r="C30" s="22"/>
@@ -1014,7 +1035,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="22"/>
@@ -1022,7 +1043,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="22"/>
@@ -1030,7 +1051,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="22"/>
@@ -1038,7 +1059,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="22"/>
@@ -1046,7 +1067,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="22"/>
@@ -1054,7 +1075,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="22"/>
@@ -1062,7 +1083,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="22"/>
@@ -1070,7 +1091,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="22"/>
@@ -1078,7 +1099,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="22"/>
@@ -1086,7 +1107,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="22"/>
@@ -1094,7 +1115,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="22"/>
@@ -1102,7 +1123,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="22"/>
@@ -1110,7 +1131,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="22"/>
@@ -1118,7 +1139,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="22"/>
@@ -1126,7 +1147,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="22"/>
@@ -1134,7 +1155,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="22"/>
@@ -1142,7 +1163,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="22"/>
@@ -1150,7 +1171,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="22"/>
@@ -1158,7 +1179,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="22"/>
@@ -1166,7 +1187,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="22"/>
@@ -1174,7 +1195,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="22"/>
@@ -1182,7 +1203,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="22"/>
@@ -1190,7 +1211,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="22"/>
@@ -1198,7 +1219,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="22"/>
@@ -1206,7 +1227,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="22"/>
@@ -1214,7 +1235,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="22"/>
@@ -1222,7 +1243,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="22"/>
@@ -1230,7 +1251,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="22"/>
@@ -1238,7 +1259,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="22"/>
@@ -1246,7 +1267,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="22"/>
@@ -1254,7 +1275,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="22"/>
@@ -1262,7 +1283,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="22"/>
